--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請一覧画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請一覧画面) .xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\04_外部仕様書\画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082BBD4-4091-46B1-9FF7-4517D324EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="30888" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="〇〇画面" sheetId="2" r:id="rId2"/>
+    <sheet name="申請一覧画面" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$M$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">申請一覧画面!$A$1:$V$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -115,11 +114,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +300,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,15 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,8 +359,8 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>929640</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
@@ -364,7 +377,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1046"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1049"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -379,7 +392,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -404,15 +417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>604974</xdr:colOff>
+      <xdr:colOff>437334</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17961</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>453119</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>37011</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -427,319 +440,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1720760" y="1868532"/>
-          <a:ext cx="4869180" cy="2794908"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>221797</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178798</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1415772" cy="435697"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181243AF-7801-476F-9A7D-4755F254AAC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2698297" y="2029369"/>
-          <a:ext cx="1415772" cy="435697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>〇〇ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>589997</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115116</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="318164" cy="280205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824092A5-4862-429E-8645-C38BA0A48219}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3066497" y="2659652"/>
-          <a:ext cx="318164" cy="280205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>636044</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42726</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="954107" cy="349776"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2432187" y="3049905"/>
-          <a:ext cx="954107" cy="349776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>267516</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>452573</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>147586</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C493AE2-4C07-4A8B-BE08-8A4F2948C94A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3424373" y="2682597"/>
-          <a:ext cx="1545771" cy="240846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261801</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99504</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>456383</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110934</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B1A7F9-41BF-4BD6-AC3D-216B084B5553}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3418658" y="3106683"/>
-          <a:ext cx="1555296" cy="242751"/>
+          <a:off x="1542234" y="1836420"/>
+          <a:ext cx="5079546" cy="3550920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,60 +485,72 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>137976</xdr:rowOff>
+      <xdr:colOff>270284</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>194038</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49089</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33731</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC44A1C-902E-47F3-9BA1-BDE5D49025AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1932215" y="1988547"/>
-          <a:ext cx="680357" cy="518705"/>
+          <a:off x="2053364" y="2194427"/>
+          <a:ext cx="2491525" cy="582504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロゴ</a:t>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>2023</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>月申請一覧表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -845,79 +559,1385 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>410392</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>40906</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255044</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>521155</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107496</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809304</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4247606" y="3510727"/>
-          <a:ext cx="791120" cy="297912"/>
+          <a:off x="2038124" y="2674219"/>
+          <a:ext cx="3945160" cy="467631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>	09</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255044</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>210785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809304</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>221216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038124" y="2953985"/>
+          <a:ext cx="3945160" cy="467631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>09</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>277904</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>832164</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2060984" y="3233750"/>
+          <a:ext cx="3945160" cy="467631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>09</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>270284</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>824544</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2053364" y="3513516"/>
+          <a:ext cx="3945160" cy="467631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>09</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>239214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563290</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>62937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2022294" y="4742361"/>
+          <a:ext cx="3714976" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>31</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>09</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3924300"/>
+          <a:ext cx="365760" cy="883920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン</a:t>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1478280" y="1226820"/>
+          <a:ext cx="5128260" cy="533400"/>
+          <a:chOff x="1333500" y="1219200"/>
+          <a:chExt cx="5128260" cy="533400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1333500" y="1219200"/>
+            <a:ext cx="5128260" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1455420" y="1356360"/>
+            <a:ext cx="861060" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>勤怠管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1348740"/>
+            <a:ext cx="944880" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログアウト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1219,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -1270,285 +2290,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1556,6 +2546,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,10 +2584,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N1:P8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1576,7 +2598,15 @@
     <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="14:16" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
